--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3366.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3366.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.22506074283831</v>
+        <v>0.7188875675201416</v>
       </c>
       <c r="B1">
-        <v>2.592016167014499</v>
+        <v>3.642741441726685</v>
       </c>
       <c r="C1">
-        <v>5.16899569806974</v>
+        <v>2.669186353683472</v>
       </c>
       <c r="D1">
-        <v>2.7468187882397</v>
+        <v>2.207858085632324</v>
       </c>
       <c r="E1">
-        <v>1.174768559282018</v>
+        <v>2.004126787185669</v>
       </c>
     </row>
   </sheetData>
